--- a/Data/random_0.xlsx
+++ b/Data/random_0.xlsx
@@ -363,7 +363,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -383,7 +383,7 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -393,12 +393,12 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -408,7 +408,7 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -418,22 +418,22 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -443,12 +443,12 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -458,27 +458,27 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -488,7 +488,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -503,7 +503,7 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -518,7 +518,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -528,12 +528,12 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -543,7 +543,7 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -553,7 +553,7 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -563,7 +563,7 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -588,7 +588,7 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -598,7 +598,7 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -608,22 +608,22 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -633,37 +633,37 @@
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -673,17 +673,17 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -693,7 +693,7 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -708,7 +708,7 @@
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -718,12 +718,12 @@
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -733,32 +733,32 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -768,12 +768,12 @@
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:1">
@@ -783,7 +783,7 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:1">
@@ -793,7 +793,7 @@
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="91" spans="1:1">
@@ -818,22 +818,22 @@
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:1">
